--- a/test-case.xlsx
+++ b/test-case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karis\OneDrive\Desktop\kiemthu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507183C2-5329-47C0-A28D-35CADA959E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A29C1A-4664-4939-94DB-72BE5085DD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="238">
   <si>
     <t>TC1</t>
   </si>
@@ -399,40 +399,16 @@
     <t xml:space="preserve">Checking receipt information </t>
   </si>
   <si>
-    <t xml:space="preserve">1: Go to Log in function
-2: Log in with Admin Role successfully
-3: Click Management function
-4: Click receipt management
-5: Click receipt information
-</t>
-  </si>
-  <si>
     <t>Trip's name, price, quantity, date, user name, total</t>
   </si>
   <si>
     <t xml:space="preserve">Checking delete receipt </t>
   </si>
   <si>
-    <t xml:space="preserve">1: Go to Log in function
-2: Log in with Admin Role successfully
-3: Click Management function
-4: Click receipt management
-5: Click delete
-</t>
-  </si>
-  <si>
     <t>That receipt disappear</t>
   </si>
   <si>
     <t xml:space="preserve">Checking edit receipts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to Log in function
-2: Log in with Admin Role successfully
-3: Click Management function
-4: Click receipt management
-5: Click edit
-</t>
   </si>
   <si>
     <t>Receipts id , user id, date, user fullname, email,phone, price total, payment menthod, status</t>
@@ -877,25 +853,11 @@
     <t>Erorr: has message ' Request processing failed'nested exception is java.lang.RuntimeException: Empty file</t>
   </si>
   <si>
-    <t>1. Check  statistical management function: This will be typically set for admin users only</t>
-  </si>
-  <si>
-    <t>1. Check receipt management function: This will be typically set for admin users only</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check edit receipt function with date blank
 </t>
   </si>
   <si>
     <t>2. Check receipt management function with invalid credentials</t>
-  </si>
-  <si>
-    <t>1: Go to Log in function
-2: Log in with Admin Role successfully
-3: Click management function
-4: Click receipt Management
-5: Click edit 
-6: Delete receipt</t>
   </si>
   <si>
     <t>Bug06</t>
@@ -945,27 +907,210 @@
 blank</t>
   </si>
   <si>
+    <t>the receipt no phone</t>
+  </si>
+  <si>
+    <t>bug10</t>
+  </si>
+  <si>
+    <t>Bug10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit the receipt </t>
+  </si>
+  <si>
+    <t>edit the receipt</t>
+  </si>
+  <si>
+    <t>9/1/20222</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>12/1/20222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking book trip </t>
+  </si>
+  <si>
     <t>1: Go to Log in function
-2: Log in with admin role successfully
+2: Log in with employee role successfully
+3: Click employee function
+4: Select trip
+5: Click book
+6: Select quantity
+7: Click cart
+8: Click employee book trip
+9: Click continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List receipt's trip </t>
+  </si>
+  <si>
+    <t>13/1/2022</t>
+  </si>
+  <si>
+    <t>Checking trip's information before book</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with employee role successfully
+3: Click employee function
+4: Select trip
+5: Click book</t>
+  </si>
+  <si>
+    <t>ID(int), place of departure (varhcar), destination(varchar), date(date), (quantity),driver's name(varchar)</t>
+  </si>
+  <si>
+    <t>Checking cart</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with employee role successfully
+3: Click employee function
+4: Select trip
+5: Click book
+6: Select quantity
+7: Click cart</t>
+  </si>
+  <si>
+    <t>ID(int), trip's name(varchar), price(decimal), quantity(int), total (decimal), button delete</t>
+  </si>
+  <si>
+    <t>Checking payment</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with employee role successfully
+3: Click employee function
+4: Select trip
+5: Click book
+6: Select quantity
+7: Click cart
+8: Click payment</t>
+  </si>
+  <si>
+    <t>Payment success</t>
+  </si>
+  <si>
+    <t>1. Check receipt management function: This will be typically set for admin and employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Go to Log in function
+2: Log in with admin and employee role successfully
+3: Click Management function
+4: Click receipt management
+5: Click receipt information
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Go to Log in function
+2: Log in with admin and employee role successfully
+3: Click Management function
+4: Click receipt management
+5: Click delete
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Go to Log in function
+2: Log in with admin and employee role successfully
+3: Click Management function
+4: Click receipt management
+5: Click edit
+</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with admin and employee role successfully
+3: Click management function
+4: Click receipt Management
+5: Click edit 
+6: Delete receipt</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with admin and employee role successfully
+3: Click Management function
+4: Click Driver Management
+5: Click edit 
+6: Delete email</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with admin and employee role successfully
 3: Click Management function
 4: Click receipt Management
 5: Click edit 
 6: Delete phone</t>
   </si>
   <si>
-    <t>the receipt no phone</t>
-  </si>
-  <si>
-    <t>bug10</t>
-  </si>
-  <si>
-    <t>Bug10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edit the receipt </t>
-  </si>
-  <si>
-    <t>edit the receipt</t>
+    <t>1. Check book trip management function: This will be typically set for employee users only</t>
+  </si>
+  <si>
+    <t>1. Check  statistical management function with valid credentials: This will be typically set for admin users only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check book trip function with over quantity blank
+</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with employee role successfully
+3: Click employee function
+4: Select trip
+5: Click book
+6: Select quantity</t>
+  </si>
+  <si>
+    <t>Bug11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appear alert over quantity </t>
+  </si>
+  <si>
+    <t>bug11</t>
+  </si>
+  <si>
+    <t>over quantity</t>
+  </si>
+  <si>
+    <t>over quantity of trip</t>
+  </si>
+  <si>
+    <t>appear trip has quantity is negative</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Checking delete trip in cart</t>
+  </si>
+  <si>
+    <t>1: Go to Log in function
+2: Log in with employee role successfully
+3: Click employee function
+4: Select trip
+5: Click book
+6: Select quantity
+7: Click cart
+8: Click delete</t>
+  </si>
+  <si>
+    <t>the trip dissapear</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>1. Check sign up management function: This will be typically set for everyone</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1849,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1790,38 +1935,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1920,14 +2035,8 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1971,12 +2080,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1986,12 +2089,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2003,12 +2100,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2102,15 +2193,87 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2120,15 +2283,24 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2136,94 +2308,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2582,7 +2709,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2618,7 +2745,7 @@
       <c r="B3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="53">
         <v>1.2</v>
       </c>
       <c r="D3" s="29"/>
@@ -2653,11 +2780,11 @@
       <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -2666,11 +2793,11 @@
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -2698,25 +2825,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="36" customFormat="1" ht="26.4">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="79" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2728,117 +2855,137 @@
         <v>41</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="91"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="180"/>
     </row>
     <row r="13" spans="1:8" s="36" customFormat="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>198</v>
+      </c>
       <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="91"/>
+      <c r="F13" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="180"/>
     </row>
     <row r="14" spans="1:8" s="37" customFormat="1" ht="13.2">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="D14" s="40"/>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="91"/>
+      <c r="F14" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="180"/>
     </row>
     <row r="15" spans="1:8" s="37" customFormat="1" ht="13.2">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="181"/>
+      <c r="E15" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="181" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
     </row>
     <row r="16" spans="1:8" s="36" customFormat="1">
       <c r="B16" s="38"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="47"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="183"/>
     </row>
     <row r="17" spans="2:8" s="36" customFormat="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
     </row>
     <row r="18" spans="2:8" s="36" customFormat="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
     </row>
     <row r="19" spans="2:8" s="36" customFormat="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
     </row>
     <row r="20" spans="2:8" s="36" customFormat="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
     </row>
     <row r="21" spans="2:8" s="36" customFormat="1">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="182"/>
     </row>
     <row r="22" spans="2:8" s="36" customFormat="1">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
     </row>
     <row r="23" spans="2:8" s="36" customFormat="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2902,7 +3049,7 @@
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -2928,47 +3075,47 @@
     </row>
     <row r="7" spans="1:7" ht="26.4">
       <c r="A7" s="20"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="67" customFormat="1" ht="13.8">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74">
+    <row r="8" spans="1:7" s="57" customFormat="1" ht="13.8">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64">
         <v>1</v>
       </c>
-      <c r="C8" s="75" t="str">
+      <c r="C8" s="65" t="str">
         <f>Samples!B4</f>
         <v>UM</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="66">
         <f>Samples!B6</f>
         <v>7</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="65">
         <f>Samples!B7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="65">
         <f>Samples!D6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="66">
         <f>Samples!D7</f>
         <v>7</v>
       </c>
@@ -2979,30 +3126,30 @@
         <v>2</v>
       </c>
       <c r="C9" s="33"/>
-      <c r="D9" s="78"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="19"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="51">
         <f>SUM(D6:D9)</f>
         <v>7</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="51">
         <f>SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="51">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="52">
         <f>SUM(G6:G9)</f>
         <v>7</v>
       </c>
@@ -3063,1580 +3210,1580 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="95" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="83" customWidth="1"/>
     <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="9" style="98"/>
-    <col min="10" max="10" width="18" style="97" customWidth="1"/>
+    <col min="9" max="9" width="9" style="86"/>
+    <col min="10" max="10" width="18" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="13.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:11" s="71" customFormat="1" ht="26.4">
+      <c r="A5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="80"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="80">
         <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I794,"Pending")</f>
+        <f>COUNTIF(I10:I792,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="81">
         <f>COUNTIF(I12:I15,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="56">
         <v>7</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="185"/>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="164" t="s">
+    <row r="9" spans="1:11" s="73" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="159" t="s">
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="161" t="s">
+      <c r="J9" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="70"/>
-    </row>
-    <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="1:11" s="61" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="155"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="60"/>
+    </row>
+    <row r="11" spans="1:11" s="74" customFormat="1" ht="15">
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="13.2">
-      <c r="A12" s="156" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="A12" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="79.2" outlineLevel="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="172" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="110" t="s">
+      <c r="D13" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="87" t="s">
+      <c r="I13" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="85"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="83.4" customHeight="1" outlineLevel="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="176" t="s">
+      <c r="D14" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="96" t="s">
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="85"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="86.4" customHeight="1" outlineLevel="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="177" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="96" t="s">
+      <c r="C15" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="85"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="164"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
+      <c r="A17" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="75"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
+      <c r="A18" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
-      <c r="A17" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="107" t="s">
+      <c r="C18" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
+      <c r="A19" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C19" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="130">
+      <c r="D19" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="112">
         <v>44896</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I19" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="85"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
-      <c r="A18" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="130">
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
+      <c r="A20" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="112">
         <v>44896</v>
       </c>
-      <c r="I18" s="87" t="s">
+      <c r="I20" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="85"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
-      <c r="A19" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I19" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="85"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1" outlineLevel="1">
-      <c r="A20" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I20" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="85"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
-      <c r="A21" s="121"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="124"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A22" s="121"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="124"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="106"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="124"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="15.6" customHeight="1" outlineLevel="1">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="124"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="23.4" customHeight="1" outlineLevel="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="124"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="92">
+      <c r="B26" s="80">
         <v>7</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="13">
-        <f>COUNTIF(I34:I808,"Pending")</f>
+        <f>COUNTIF(I34:I806,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="124"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="93">
+      <c r="B27" s="81">
         <f>COUNTIF(I51:I54,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="56">
         <v>7</v>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="124"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="124"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="165" t="s">
+      <c r="B29" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="159" t="s">
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="161" t="s">
+      <c r="I29" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="161" t="s">
+      <c r="J29" s="155" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
-      <c r="A30" s="161"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1">
-      <c r="A31" s="162"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
-      <c r="A32" s="156" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
+      <c r="A32" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:10" ht="73.2" customHeight="1">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="172" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="110" t="s">
+      <c r="D33" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I33" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="85"/>
+      <c r="J33" s="75"/>
     </row>
     <row r="34" spans="1:10" ht="79.2" customHeight="1">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="1:10" ht="84.6" customHeight="1">
+      <c r="A35" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="149" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1">
+      <c r="A36" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
+    </row>
+    <row r="37" spans="1:10" ht="97.2" customHeight="1">
+      <c r="A37" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I37" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="75"/>
+    </row>
+    <row r="38" spans="1:10" ht="90.6" customHeight="1">
+      <c r="A38" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I38" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="75"/>
+    </row>
+    <row r="39" spans="1:10" ht="85.8" customHeight="1">
+      <c r="A39" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="176" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="87" t="s">
+      <c r="D39" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I39" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="85"/>
-    </row>
-    <row r="35" spans="1:10" ht="84.6" customHeight="1">
-      <c r="A35" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="177" t="s">
+      <c r="J39" s="75"/>
+    </row>
+    <row r="40" spans="1:10" ht="82.2" customHeight="1">
+      <c r="A40" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="87" t="s">
+      <c r="C40" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I40" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
-      <c r="A36" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
-    </row>
-    <row r="37" spans="1:10" ht="97.2" customHeight="1">
-      <c r="A37" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I37" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="85"/>
-    </row>
-    <row r="38" spans="1:10" ht="90.6" customHeight="1">
-      <c r="A38" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I38" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="85"/>
-    </row>
-    <row r="39" spans="1:10" ht="85.8" customHeight="1">
-      <c r="A39" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I39" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="85"/>
-    </row>
-    <row r="40" spans="1:10" ht="82.2" customHeight="1">
-      <c r="A40" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I40" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="85"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="41" spans="1:10" ht="38.4" customHeight="1" thickBot="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="124"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="106"/>
     </row>
     <row r="42" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="153"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="124"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="106"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="189"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="124"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="106"/>
     </row>
     <row r="44" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="124"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="106"/>
     </row>
     <row r="45" spans="1:10" ht="14.4" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="92">
+      <c r="B45" s="80">
         <v>11</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="13">
-        <f>COUNTIF(I53:I824,"Pending")</f>
+        <f>COUNTIF(I53:I822,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="124"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="106"/>
     </row>
     <row r="46" spans="1:10" ht="13.8" customHeight="1" thickBot="1">
       <c r="A46" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="93">
+      <c r="B46" s="81">
         <v>4</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="56">
         <v>15</v>
       </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="124"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="106"/>
     </row>
     <row r="47" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A47" s="125"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="124"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="164" t="s">
+      <c r="C48" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="167" t="s">
+      <c r="D48" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="159" t="s">
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="161" t="s">
+      <c r="I48" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="161" t="s">
+      <c r="J48" s="155" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A49" s="161"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
+      <c r="A49" s="155"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
     </row>
     <row r="50" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="163"/>
+      <c r="A50" s="171"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="172"/>
     </row>
     <row r="51" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A51" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="175"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="109"/>
+      <c r="A51" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="163"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="164"/>
     </row>
     <row r="52" spans="1:10" ht="84" customHeight="1">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="172" t="s">
+      <c r="C52" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="115">
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="99">
         <v>44440</v>
       </c>
-      <c r="I52" s="87" t="s">
+      <c r="I52" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="85"/>
+      <c r="J52" s="75"/>
     </row>
     <row r="53" spans="1:10" ht="70.2" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="100" t="s">
+      <c r="B53" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="153" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="100">
+        <v>44440</v>
+      </c>
+      <c r="I53" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="75"/>
+    </row>
+    <row r="54" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A54" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="149" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="100">
+        <v>44440</v>
+      </c>
+      <c r="I54" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="75"/>
+    </row>
+    <row r="55" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A55" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="176" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="173"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="116">
+      <c r="C55" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="100">
         <v>44440</v>
       </c>
-      <c r="I53" s="87" t="s">
+      <c r="I55" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="85"/>
-    </row>
-    <row r="54" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A54" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="87" t="s">
+      <c r="J55" s="75"/>
+    </row>
+    <row r="56" spans="1:10" ht="17.399999999999999" customHeight="1">
+      <c r="A56" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="164"/>
+    </row>
+    <row r="57" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A57" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I57" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A58" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I58" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="75"/>
+    </row>
+    <row r="59" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A59" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I59" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A60" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="177" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="116">
-        <v>44440</v>
-      </c>
-      <c r="I54" s="87" t="s">
+      <c r="B60" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I60" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="85"/>
-    </row>
-    <row r="55" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A55" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="87" t="s">
+      <c r="J60" s="75"/>
+    </row>
+    <row r="61" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A61" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="D55" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="116">
-        <v>44440</v>
-      </c>
-      <c r="I55" s="87" t="s">
+      <c r="C61" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="148" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I61" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="85"/>
-    </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" customHeight="1">
-      <c r="A56" s="156" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="158"/>
-    </row>
-    <row r="57" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A57" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="130">
+      <c r="J61" s="75"/>
+    </row>
+    <row r="62" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A62" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="112">
         <v>44896</v>
       </c>
-      <c r="I57" s="87" t="s">
+      <c r="I62" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A58" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="107" t="s">
+      <c r="J62" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="130">
+    </row>
+    <row r="63" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A63" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="112">
         <v>44896</v>
       </c>
-      <c r="I58" s="87" t="s">
+      <c r="I63" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="85"/>
-    </row>
-    <row r="59" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A59" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="130">
+      <c r="J63" s="75"/>
+    </row>
+    <row r="64" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A64" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="112">
         <v>44896</v>
       </c>
-      <c r="I59" s="87" t="s">
+      <c r="I64" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="75"/>
+    </row>
+    <row r="65" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A65" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I65" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="75"/>
+    </row>
+    <row r="66" spans="1:10" ht="81.599999999999994" customHeight="1">
+      <c r="A66" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I66" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A60" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="130">
+      <c r="J66" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="82.8" customHeight="1">
+      <c r="A67" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="112">
         <v>44896</v>
       </c>
-      <c r="I60" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" s="85"/>
-    </row>
-    <row r="61" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A61" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="182" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="182"/>
-      <c r="F61" s="182"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I61" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J61" s="85"/>
-    </row>
-    <row r="62" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I62" s="87" t="s">
+      <c r="I67" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A63" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="155" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I63" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="85"/>
-    </row>
-    <row r="64" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A64" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I64" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" s="85"/>
-    </row>
-    <row r="65" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A65" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I65" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" s="85"/>
-    </row>
-    <row r="66" spans="1:10" ht="81.599999999999994" customHeight="1">
-      <c r="A66" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="87" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I66" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="82.8" customHeight="1">
-      <c r="A67" s="88" t="s">
+      <c r="J67" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="B67" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="182"/>
-      <c r="F67" s="182"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I67" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="85" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="68" spans="1:10" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A68" s="147"/>
-      <c r="B68" s="148"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="150"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="124"/>
+      <c r="A68" s="129"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="106"/>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="153" t="s">
+      <c r="B69" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="153"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="129"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="124"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="106"/>
     </row>
     <row r="70" spans="1:10" ht="19.2" customHeight="1">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="188" t="s">
+      <c r="B70" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="189"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="129"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="124"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="106"/>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="179"/>
-      <c r="C71" s="180"/>
-      <c r="D71" s="181"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="112"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="124"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="106"/>
     </row>
     <row r="72" spans="1:10" ht="19.2" customHeight="1">
       <c r="A72" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="92">
+      <c r="B72" s="80">
         <v>1</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D72" s="13">
-        <f>COUNTIF(I81:I830,"Pending")</f>
+        <f>COUNTIF(I81:I828,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="E72" s="112"/>
-      <c r="F72" s="112"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="124"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="106"/>
     </row>
     <row r="73" spans="1:10" ht="19.2" customHeight="1" thickBot="1">
       <c r="A73" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="93">
+      <c r="B73" s="81">
         <f>COUNTIF(I104:I107,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C73" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="66">
+      <c r="D73" s="56">
         <v>1</v>
       </c>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="129"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="124"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="106"/>
     </row>
     <row r="74" spans="1:10" ht="19.2" customHeight="1">
-      <c r="A74" s="125"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="128"/>
-      <c r="E74" s="118"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="129"/>
-      <c r="I74" s="117"/>
-      <c r="J74" s="124"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="106"/>
     </row>
     <row r="75" spans="1:10" ht="12.6" customHeight="1">
-      <c r="A75" s="164" t="s">
+      <c r="A75" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="165" t="s">
+      <c r="B75" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="164" t="s">
+      <c r="C75" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="167" t="s">
+      <c r="D75" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="159" t="s">
+      <c r="E75" s="157"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="161" t="s">
+      <c r="I75" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="161" t="s">
+      <c r="J75" s="155" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1">
-      <c r="A76" s="161"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="161"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="170"/>
-      <c r="F76" s="170"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="160"/>
-      <c r="I76" s="161"/>
-      <c r="J76" s="161"/>
+      <c r="A76" s="155"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="155"/>
+      <c r="D76" s="159"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="161"/>
+      <c r="H76" s="159"/>
+      <c r="I76" s="155"/>
+      <c r="J76" s="155"/>
     </row>
     <row r="77" spans="1:10" ht="19.2" customHeight="1">
-      <c r="A77" s="162"/>
-      <c r="B77" s="162"/>
-      <c r="C77" s="162"/>
-      <c r="D77" s="162"/>
-      <c r="E77" s="162"/>
-      <c r="F77" s="162"/>
-      <c r="G77" s="162"/>
-      <c r="H77" s="162"/>
-      <c r="I77" s="162"/>
-      <c r="J77" s="163"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="172"/>
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1">
-      <c r="A78" s="174" t="s">
-        <v>180</v>
-      </c>
-      <c r="B78" s="175"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="119"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="119"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="120"/>
+      <c r="A78" s="175" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="176"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="176"/>
+      <c r="I78" s="176"/>
+      <c r="J78" s="177"/>
     </row>
     <row r="79" spans="1:10" ht="73.8" customHeight="1">
-      <c r="A79" s="88" t="s">
+      <c r="A79" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="87" t="s">
+      <c r="C79" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="172" t="s">
+      <c r="D79" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="173"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="115">
+      <c r="E79" s="152"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="99">
         <v>44440</v>
       </c>
-      <c r="I79" s="87" t="s">
+      <c r="I79" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J79" s="85" t="s">
+      <c r="J79" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12" customHeight="1" thickBot="1"/>
     <row r="81" spans="1:10" ht="12" customHeight="1">
-      <c r="A81" s="65" t="s">
+      <c r="A81" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="153" t="s">
+      <c r="B81" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="153"/>
-      <c r="D81" s="154"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="137"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1">
-      <c r="A82" s="72" t="s">
+      <c r="A82" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="188" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="189"/>
-      <c r="D82" s="190"/>
+      <c r="B82" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="142"/>
+      <c r="D82" s="143"/>
     </row>
     <row r="83" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="179"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="181"/>
+      <c r="B83" s="144"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="146"/>
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1">
       <c r="A84" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="92">
-        <v>3</v>
+      <c r="B84" s="80">
+        <v>2</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D84" s="13">
-        <f>COUNTIF(I93:I839,"Pending")</f>
+        <f>COUNTIF(I93:I837,"Pending")</f>
         <v>0</v>
       </c>
     </row>
@@ -4644,320 +4791,319 @@
       <c r="A85" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="93">
-        <f>COUNTIF(I113:I116,"Fail")</f>
-        <v>0</v>
+      <c r="B85" s="81">
+        <v>6</v>
       </c>
       <c r="C85" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="66">
+      <c r="D85" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="12" customHeight="1">
+      <c r="A86" s="133"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="59"/>
+    </row>
+    <row r="87" spans="1:10" ht="12" customHeight="1">
+      <c r="A87" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="158"/>
+      <c r="H87" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="12" customHeight="1">
+      <c r="A88" s="155"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="159"/>
+      <c r="E88" s="160"/>
+      <c r="F88" s="160"/>
+      <c r="G88" s="161"/>
+      <c r="H88" s="159"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+    </row>
+    <row r="89" spans="1:10" ht="12" customHeight="1">
+      <c r="A89" s="171"/>
+      <c r="B89" s="171"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="171"/>
+      <c r="F89" s="171"/>
+      <c r="G89" s="171"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="172"/>
+    </row>
+    <row r="90" spans="1:10" ht="12" customHeight="1">
+      <c r="A90" s="162" t="s">
+        <v>214</v>
+      </c>
+      <c r="B90" s="163"/>
+      <c r="C90" s="163"/>
+      <c r="D90" s="163"/>
+      <c r="E90" s="163"/>
+      <c r="F90" s="163"/>
+      <c r="G90" s="163"/>
+      <c r="H90" s="163"/>
+      <c r="I90" s="163"/>
+      <c r="J90" s="164"/>
+    </row>
+    <row r="91" spans="1:10" ht="76.2" customHeight="1">
+      <c r="A91" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="152"/>
+      <c r="F91" s="152"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="99">
+        <v>44440</v>
+      </c>
+      <c r="I91" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="75"/>
+    </row>
+    <row r="92" spans="1:10" ht="78" customHeight="1">
+      <c r="A92" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="152"/>
+      <c r="F92" s="152"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="99">
+        <v>44440</v>
+      </c>
+      <c r="I92" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" s="75"/>
+    </row>
+    <row r="93" spans="1:10" ht="91.8" customHeight="1">
+      <c r="A93" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="152"/>
+      <c r="F93" s="152"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="99">
+        <v>44440</v>
+      </c>
+      <c r="I93" s="77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="12" customHeight="1">
-      <c r="A86" s="151"/>
-      <c r="B86" s="103"/>
-      <c r="C86" s="152"/>
-      <c r="D86" s="69"/>
-    </row>
-    <row r="87" spans="1:10" ht="12" customHeight="1">
-      <c r="A87" s="164" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="167" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="168"/>
-      <c r="F87" s="168"/>
-      <c r="G87" s="169"/>
-      <c r="H87" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="J87" s="161" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="12" customHeight="1">
-      <c r="A88" s="161"/>
-      <c r="B88" s="166"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="160"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
-      <c r="G88" s="171"/>
-      <c r="H88" s="160"/>
-      <c r="I88" s="161"/>
-      <c r="J88" s="161"/>
-    </row>
-    <row r="89" spans="1:10" ht="12" customHeight="1">
-      <c r="A89" s="162"/>
-      <c r="B89" s="162"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="162"/>
-      <c r="E89" s="162"/>
-      <c r="F89" s="162"/>
-      <c r="G89" s="162"/>
-      <c r="H89" s="162"/>
-      <c r="I89" s="162"/>
-      <c r="J89" s="163"/>
-    </row>
-    <row r="90" spans="1:10" ht="12" customHeight="1">
-      <c r="A90" s="174" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="113"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="113"/>
-      <c r="I90" s="113"/>
-      <c r="J90" s="114"/>
-    </row>
-    <row r="91" spans="1:10" ht="76.2" customHeight="1">
-      <c r="A91" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="172" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="173"/>
-      <c r="F91" s="173"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="115">
-        <v>44440</v>
-      </c>
-      <c r="I91" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J91" s="85"/>
-    </row>
-    <row r="92" spans="1:10" ht="78" customHeight="1">
-      <c r="A92" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="172" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="173"/>
-      <c r="F92" s="173"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="115">
-        <v>44440</v>
-      </c>
-      <c r="I92" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92" s="85"/>
-    </row>
-    <row r="93" spans="1:10" ht="71.400000000000006" customHeight="1">
-      <c r="A93" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" s="87" t="s">
+      <c r="J93" s="75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16.2" customHeight="1">
+      <c r="A94" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="163"/>
+      <c r="C94" s="163"/>
+      <c r="D94" s="163"/>
+      <c r="E94" s="163"/>
+      <c r="F94" s="163"/>
+      <c r="G94" s="163"/>
+      <c r="H94" s="163"/>
+      <c r="I94" s="163"/>
+      <c r="J94" s="164"/>
+    </row>
+    <row r="95" spans="1:10" ht="101.4" customHeight="1">
+      <c r="A95" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="E93" s="173"/>
-      <c r="F93" s="173"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="115">
-        <v>44440</v>
-      </c>
-      <c r="I93" s="87" t="s">
+      <c r="B95" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="147"/>
+      <c r="F95" s="147"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I95" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="85" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A94" s="156" t="s">
+      <c r="J95" s="75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="81" customHeight="1">
+      <c r="A96" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="B94" s="157"/>
-      <c r="C94" s="157"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="157"/>
-      <c r="H94" s="157"/>
-      <c r="I94" s="157"/>
-      <c r="J94" s="158"/>
-    </row>
-    <row r="95" spans="1:10" ht="84" customHeight="1">
-      <c r="A95" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="87" t="s">
+      <c r="D96" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="147"/>
+      <c r="F96" s="147"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="112">
+        <v>44896</v>
+      </c>
+      <c r="I96" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="D95" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E95" s="155"/>
-      <c r="F95" s="155"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="130">
+    </row>
+    <row r="97" spans="1:10" ht="94.8" customHeight="1">
+      <c r="A97" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="147"/>
+      <c r="F97" s="147"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="112">
         <v>44896</v>
       </c>
-      <c r="I95" s="87" t="s">
+      <c r="I97" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="J95" s="85" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="81" customHeight="1">
-      <c r="A96" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E96" s="155"/>
-      <c r="F96" s="155"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="130">
+      <c r="J97" s="75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="100.2" customHeight="1">
+      <c r="A98" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="147" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="147"/>
+      <c r="F98" s="147"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="112">
         <v>44896</v>
       </c>
-      <c r="I96" s="87" t="s">
+      <c r="I98" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="J96" s="85" t="s">
+      <c r="J98" s="75" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="78.599999999999994" customHeight="1">
-      <c r="A97" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E97" s="155"/>
-      <c r="F97" s="155"/>
-      <c r="G97" s="87"/>
-      <c r="H97" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I97" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" s="85" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="80.400000000000006" customHeight="1">
-      <c r="A98" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="E98" s="155"/>
-      <c r="F98" s="155"/>
-      <c r="G98" s="87"/>
-      <c r="H98" s="130">
-        <v>44896</v>
-      </c>
-      <c r="I98" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="85" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="12" customHeight="1" thickBot="1"/>
     <row r="100" spans="1:10" ht="12" customHeight="1">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="191" t="s">
+      <c r="B100" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="192"/>
-      <c r="D100" s="193"/>
+      <c r="C100" s="139"/>
+      <c r="D100" s="140"/>
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="188" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" s="189"/>
-      <c r="D101" s="190"/>
+      <c r="B101" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="142"/>
+      <c r="D101" s="143"/>
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1">
-      <c r="A102" s="72" t="s">
+      <c r="A102" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B102" s="179"/>
-      <c r="C102" s="180"/>
-      <c r="D102" s="181"/>
+      <c r="B102" s="144"/>
+      <c r="C102" s="145"/>
+      <c r="D102" s="146"/>
     </row>
     <row r="103" spans="1:10" ht="12" customHeight="1">
       <c r="A103" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="92">
-        <v>1</v>
+      <c r="B103" s="80">
+        <v>5</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D103" s="13">
-        <f>COUNTIF(I109:I850,"Pending")</f>
+        <f>COUNTIF(I109:I848,"Pending")</f>
         <v>0</v>
       </c>
     </row>
@@ -4965,49 +5111,915 @@
       <c r="A104" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="93">
-        <f>COUNTIF(I124:I127,"Fail")</f>
-        <v>0</v>
+      <c r="B104" s="81">
+        <v>1</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="66">
+      <c r="D104" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="12" customHeight="1"/>
+    <row r="106" spans="1:10" ht="12" customHeight="1">
+      <c r="A106" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="157"/>
+      <c r="F106" s="157"/>
+      <c r="G106" s="158"/>
+      <c r="H106" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" s="155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="12" customHeight="1">
+      <c r="A107" s="155"/>
+      <c r="B107" s="174"/>
+      <c r="C107" s="155"/>
+      <c r="D107" s="159"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="160"/>
+      <c r="G107" s="161"/>
+      <c r="H107" s="159"/>
+      <c r="I107" s="155"/>
+      <c r="J107" s="155"/>
+    </row>
+    <row r="108" spans="1:10" ht="12" customHeight="1">
+      <c r="A108" s="171"/>
+      <c r="B108" s="171"/>
+      <c r="C108" s="171"/>
+      <c r="D108" s="171"/>
+      <c r="E108" s="171"/>
+      <c r="F108" s="171"/>
+      <c r="G108" s="171"/>
+      <c r="H108" s="171"/>
+      <c r="I108" s="171"/>
+      <c r="J108" s="172"/>
+    </row>
+    <row r="109" spans="1:10" ht="13.2" customHeight="1">
+      <c r="A109" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="163"/>
+      <c r="C109" s="163"/>
+      <c r="D109" s="163"/>
+      <c r="E109" s="163"/>
+      <c r="F109" s="163"/>
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
+      <c r="I109" s="163"/>
+      <c r="J109" s="164"/>
+    </row>
+    <row r="110" spans="1:10" ht="118.8">
+      <c r="A110" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="151" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" s="152"/>
+      <c r="F110" s="152"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I110" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" s="75"/>
+    </row>
+    <row r="111" spans="1:10" ht="66">
+      <c r="A111" s="78" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="12" customHeight="1"/>
-    <row r="106" spans="1:10" ht="12" customHeight="1"/>
-    <row r="107" spans="1:10" ht="12" customHeight="1"/>
-    <row r="108" spans="1:10" ht="12" customHeight="1"/>
+      <c r="B111" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="151" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" s="152"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I111" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="75"/>
+    </row>
+    <row r="112" spans="1:10" ht="92.4">
+      <c r="A112" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="135" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="151" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" s="152"/>
+      <c r="F112" s="152"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I112" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" s="75"/>
+    </row>
+    <row r="113" spans="1:10" ht="105.6">
+      <c r="A113" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" s="152"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I113" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" s="75"/>
+    </row>
+    <row r="114" spans="1:10" ht="105.6">
+      <c r="A114" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="135" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I114" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114" s="75"/>
+    </row>
+    <row r="115" spans="1:10" ht="13.2">
+      <c r="A115" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="163"/>
+      <c r="C115" s="163"/>
+      <c r="D115" s="163"/>
+      <c r="E115" s="163"/>
+      <c r="F115" s="163"/>
+      <c r="G115" s="163"/>
+      <c r="H115" s="163"/>
+      <c r="I115" s="163"/>
+      <c r="J115" s="164"/>
+    </row>
+    <row r="116" spans="1:10" ht="79.2">
+      <c r="A116" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="147" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="147"/>
+      <c r="F116" s="147"/>
+      <c r="G116" s="135"/>
+      <c r="H116" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="I116" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116" s="75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.4" thickBot="1"/>
+    <row r="119" spans="1:10">
+      <c r="A119" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="139"/>
+      <c r="D119" s="140"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="142"/>
+      <c r="D120" s="143"/>
+    </row>
+    <row r="121" spans="1:10" ht="26.4">
+      <c r="A121" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" s="144"/>
+      <c r="C121" s="145"/>
+      <c r="D121" s="146"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" s="80">
+        <v>5</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="13">
+        <f>COUNTIF(I128:I867,"Pending")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A123" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="81">
+        <v>1</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="13.2">
+      <c r="A125" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="157"/>
+      <c r="F125" s="157"/>
+      <c r="G125" s="158"/>
+      <c r="H125" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="I125" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" s="155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="13.2">
+      <c r="A126" s="155"/>
+      <c r="B126" s="174"/>
+      <c r="C126" s="155"/>
+      <c r="D126" s="159"/>
+      <c r="E126" s="160"/>
+      <c r="F126" s="160"/>
+      <c r="G126" s="161"/>
+      <c r="H126" s="159"/>
+      <c r="I126" s="155"/>
+      <c r="J126" s="155"/>
+    </row>
+    <row r="127" spans="1:10" ht="15">
+      <c r="A127" s="171"/>
+      <c r="B127" s="171"/>
+      <c r="C127" s="171"/>
+      <c r="D127" s="171"/>
+      <c r="E127" s="171"/>
+      <c r="F127" s="171"/>
+      <c r="G127" s="171"/>
+      <c r="H127" s="171"/>
+      <c r="I127" s="171"/>
+      <c r="J127" s="172"/>
+    </row>
+    <row r="128" spans="1:10" ht="13.2">
+      <c r="A128" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="163"/>
+      <c r="C128" s="163"/>
+      <c r="D128" s="163"/>
+      <c r="E128" s="163"/>
+      <c r="F128" s="163"/>
+      <c r="G128" s="163"/>
+      <c r="H128" s="163"/>
+      <c r="I128" s="163"/>
+      <c r="J128" s="164"/>
+    </row>
+    <row r="129" spans="1:10" ht="118.8">
+      <c r="A129" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="D129" s="151" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="152"/>
+      <c r="F129" s="152"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I129" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J129" s="75"/>
+    </row>
+    <row r="130" spans="1:10" ht="66">
+      <c r="A130" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D130" s="151" t="s">
+        <v>207</v>
+      </c>
+      <c r="E130" s="152"/>
+      <c r="F130" s="152"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I130" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J130" s="75"/>
+    </row>
+    <row r="131" spans="1:10" ht="92.4">
+      <c r="A131" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="135" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" s="151" t="s">
+        <v>210</v>
+      </c>
+      <c r="E131" s="152"/>
+      <c r="F131" s="152"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I131" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J131" s="75"/>
+    </row>
+    <row r="132" spans="1:10" ht="105.6">
+      <c r="A132" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="D132" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="E132" s="152"/>
+      <c r="F132" s="152"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I132" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J132" s="75"/>
+    </row>
+    <row r="133" spans="1:10" ht="105.6">
+      <c r="A133" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" s="135" t="s">
+        <v>233</v>
+      </c>
+      <c r="D133" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="E133" s="152"/>
+      <c r="F133" s="152"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I133" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133" s="75"/>
+    </row>
+    <row r="134" spans="1:10" ht="13.2">
+      <c r="A134" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="163"/>
+      <c r="C134" s="163"/>
+      <c r="D134" s="163"/>
+      <c r="E134" s="163"/>
+      <c r="F134" s="163"/>
+      <c r="G134" s="163"/>
+      <c r="H134" s="163"/>
+      <c r="I134" s="163"/>
+      <c r="J134" s="164"/>
+    </row>
+    <row r="135" spans="1:10" ht="79.2">
+      <c r="A135" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="D135" s="147" t="s">
+        <v>226</v>
+      </c>
+      <c r="E135" s="147"/>
+      <c r="F135" s="147"/>
+      <c r="G135" s="135"/>
+      <c r="H135" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="I135" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="J135" s="75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14.4" thickBot="1"/>
+    <row r="138" spans="1:10">
+      <c r="A138" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="139"/>
+      <c r="D138" s="140"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="142"/>
+      <c r="D139" s="143"/>
+    </row>
+    <row r="140" spans="1:10" ht="26.4">
+      <c r="A140" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" s="144"/>
+      <c r="C140" s="145"/>
+      <c r="D140" s="146"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" s="80">
+        <v>5</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="13">
+        <f>COUNTIF(I147:I886,"Pending")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A142" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="81">
+        <v>1</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="13.2">
+      <c r="A144" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="157"/>
+      <c r="F144" s="157"/>
+      <c r="G144" s="158"/>
+      <c r="H144" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="I144" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J144" s="155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="13.2">
+      <c r="A145" s="155"/>
+      <c r="B145" s="174"/>
+      <c r="C145" s="155"/>
+      <c r="D145" s="159"/>
+      <c r="E145" s="160"/>
+      <c r="F145" s="160"/>
+      <c r="G145" s="161"/>
+      <c r="H145" s="159"/>
+      <c r="I145" s="155"/>
+      <c r="J145" s="155"/>
+    </row>
+    <row r="146" spans="1:10" ht="15">
+      <c r="A146" s="171"/>
+      <c r="B146" s="171"/>
+      <c r="C146" s="171"/>
+      <c r="D146" s="171"/>
+      <c r="E146" s="171"/>
+      <c r="F146" s="171"/>
+      <c r="G146" s="171"/>
+      <c r="H146" s="171"/>
+      <c r="I146" s="171"/>
+      <c r="J146" s="172"/>
+    </row>
+    <row r="147" spans="1:10" ht="13.2">
+      <c r="A147" s="162" t="s">
+        <v>237</v>
+      </c>
+      <c r="B147" s="163"/>
+      <c r="C147" s="163"/>
+      <c r="D147" s="163"/>
+      <c r="E147" s="163"/>
+      <c r="F147" s="163"/>
+      <c r="G147" s="163"/>
+      <c r="H147" s="163"/>
+      <c r="I147" s="163"/>
+      <c r="J147" s="164"/>
+    </row>
+    <row r="148" spans="1:10" ht="118.8">
+      <c r="A148" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" s="151" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="152"/>
+      <c r="F148" s="152"/>
+      <c r="G148" s="76"/>
+      <c r="H148" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I148" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J148" s="75"/>
+    </row>
+    <row r="149" spans="1:10" ht="66">
+      <c r="A149" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C149" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" s="151" t="s">
+        <v>207</v>
+      </c>
+      <c r="E149" s="152"/>
+      <c r="F149" s="152"/>
+      <c r="G149" s="76"/>
+      <c r="H149" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I149" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J149" s="75"/>
+    </row>
+    <row r="150" spans="1:10" ht="92.4">
+      <c r="A150" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" s="135" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="151" t="s">
+        <v>210</v>
+      </c>
+      <c r="E150" s="152"/>
+      <c r="F150" s="152"/>
+      <c r="G150" s="76"/>
+      <c r="H150" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I150" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J150" s="75"/>
+    </row>
+    <row r="151" spans="1:10" ht="105.6">
+      <c r="A151" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="D151" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="E151" s="152"/>
+      <c r="F151" s="152"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I151" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J151" s="75"/>
+    </row>
+    <row r="152" spans="1:10" ht="105.6">
+      <c r="A152" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152" s="135" t="s">
+        <v>233</v>
+      </c>
+      <c r="D152" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="E152" s="152"/>
+      <c r="F152" s="152"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I152" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="J152" s="75"/>
+    </row>
+    <row r="153" spans="1:10" ht="13.2">
+      <c r="A153" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="163"/>
+      <c r="C153" s="163"/>
+      <c r="D153" s="163"/>
+      <c r="E153" s="163"/>
+      <c r="F153" s="163"/>
+      <c r="G153" s="163"/>
+      <c r="H153" s="163"/>
+      <c r="I153" s="163"/>
+      <c r="J153" s="164"/>
+    </row>
+    <row r="154" spans="1:10" ht="79.2">
+      <c r="A154" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B154" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="D154" s="147" t="s">
+        <v>226</v>
+      </c>
+      <c r="E154" s="147"/>
+      <c r="F154" s="147"/>
+      <c r="G154" s="135"/>
+      <c r="H154" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="I154" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="J154" s="75" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="D17:F17"/>
+  <mergeCells count="165">
+    <mergeCell ref="A146:J146"/>
+    <mergeCell ref="A147:J147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="A153:J153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="A134:J134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:G145"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="A127:J127"/>
+    <mergeCell ref="A128:J128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="A108:J108"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:G107"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -5025,51 +6037,39 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="H48:H49"/>
     <mergeCell ref="D98:F98"/>
     <mergeCell ref="A94:J94"/>
     <mergeCell ref="H87:H88"/>
@@ -5077,22 +6077,6 @@
     <mergeCell ref="J87:J88"/>
     <mergeCell ref="A89:J89"/>
     <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5105,8 +6089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDBAED3-7455-4F9F-903C-AF69EC657EB2}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5123,373 +6107,391 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="13.8">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="F2" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="G2" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="H2" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="I2" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="J2" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="142" t="s">
+    </row>
+    <row r="3" spans="1:10" s="128" customFormat="1" ht="29.4" customHeight="1">
+      <c r="A3" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="126">
+        <v>44896</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27.6">
+      <c r="A4" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="126">
+        <v>44896</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="E4" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="142" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="146" customFormat="1" ht="29.4" customHeight="1">
-      <c r="A3" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="144">
+      <c r="J4" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27.6">
+      <c r="A5" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="126">
         <v>44896</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C5" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="143" t="s">
+      <c r="D5" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.6">
-      <c r="A4" s="143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="144">
+      <c r="H5" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="69">
+      <c r="A6" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="126">
         <v>44896</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C6" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D6" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="145" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27.6">
-      <c r="A5" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="144">
+      <c r="E6" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="96.6">
+      <c r="A7" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="126">
         <v>44896</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C7" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="69">
-      <c r="A6" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="144">
+      <c r="D7" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.200000000000003" customHeight="1">
+      <c r="A8" s="125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="126">
         <v>44896</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C8" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="96.6">
-      <c r="A7" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="144">
+      <c r="D8" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="41.4">
+      <c r="A9" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="126">
         <v>44896</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C9" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="145" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7" s="143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="40.200000000000003" customHeight="1">
-      <c r="A8" s="143" t="s">
+      <c r="D9" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="144">
+      <c r="G9" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="41.4">
+      <c r="A10" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="126">
         <v>44896</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="143" t="s">
+      <c r="D10" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="H10" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="41.4">
+      <c r="A11" s="125" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="126">
+        <v>44896</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="41.4">
-      <c r="A9" s="143" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="144">
+      <c r="H11" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="41.4">
+      <c r="A12" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="126">
         <v>44896</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C12" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="143" t="s">
+      <c r="D12" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="143" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="41.4">
-      <c r="A10" s="143" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="144">
+      <c r="H12" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="57" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A13" s="127" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="178">
         <v>44896</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C13" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="143" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="143" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.4">
-      <c r="A11" s="143" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="144">
-        <v>44896</v>
-      </c>
-      <c r="C11" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="143" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="143" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="41.4">
-      <c r="A12" s="143" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="144">
-        <v>44896</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="143" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="143" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="145" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.8">
-      <c r="A13" s="143">
-        <v>1</v>
-      </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
+      <c r="D13" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="127" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="127" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.8">
-      <c r="C14" s="140"/>
+      <c r="C14" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
